--- a/财务报表_2025.xlsx
+++ b/财务报表_2025.xlsx
@@ -398,26 +398,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>日期</v>
+      </c>
+      <c r="B1" t="str">
+        <v>类型</v>
+      </c>
+      <c r="C1" t="str">
+        <v>类别</v>
+      </c>
+      <c r="D1" t="str">
+        <v>金额</v>
+      </c>
+      <c r="E1" t="str">
+        <v>描述</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2025-02-15</v>
+      </c>
+      <c r="B2" t="str">
+        <v>支出</v>
+      </c>
+      <c r="C2" t="str">
+        <v>餐饮</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2025-02-14</v>
+      </c>
+      <c r="B3" t="str">
+        <v>支出</v>
+      </c>
+      <c r="C3" t="str">
+        <v>交通</v>
+      </c>
+      <c r="D3">
+        <v>555</v>
+      </c>
+      <c r="E3" t="str">
+        <v>花钱了！</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2025-02-14</v>
+      </c>
+      <c r="B4" t="str">
+        <v>收入</v>
+      </c>
+      <c r="C4" t="str">
+        <v>奖金</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4" t="str">
+        <v>奖金哦</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>类型</v>
+      </c>
+      <c r="B1" t="str">
+        <v>类别</v>
+      </c>
+      <c r="C1" t="str">
+        <v>笔数</v>
+      </c>
+      <c r="D1" t="str">
+        <v>总金额</v>
+      </c>
+      <c r="E1" t="str">
+        <v>平均金额</v>
+      </c>
+      <c r="F1" t="str">
+        <v>最小金额</v>
+      </c>
+      <c r="G1" t="str">
+        <v>最大金额</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>支出</v>
+      </c>
+      <c r="B2" t="str">
+        <v>交通</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>555</v>
+      </c>
+      <c r="E2">
+        <v>555</v>
+      </c>
+      <c r="F2">
+        <v>555</v>
+      </c>
+      <c r="G2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>支出</v>
+      </c>
+      <c r="B3" t="str">
+        <v>餐饮</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>收入</v>
+      </c>
+      <c r="B4" t="str">
+        <v>奖金</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+      <c r="F4">
+        <v>10000</v>
+      </c>
+      <c r="G4">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>